--- a/client/src/Excel/Data/Countries/dz.xlsx
+++ b/client/src/Excel/Data/Countries/dz.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78886F7-5B61-4B3D-B5EB-AB33CEAF3A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C35AD06-26AA-477B-A1A3-D652D3E186EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28935" yWindow="1950" windowWidth="29070" windowHeight="17670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1371,16 +1371,16 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="D3" sqref="D3:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.84765625" customWidth="1"/>
+    <col min="4" max="4" width="11.1484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>46</v>
       </c>
       <c r="D2" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E2">
         <v>2025</v>
@@ -1504,7 +1504,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>47</v>
       </c>
       <c r="D3" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E3">
         <v>2025</v>
@@ -1566,7 +1566,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>48</v>
       </c>
       <c r="D4" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E4">
         <v>2025</v>
@@ -1622,7 +1622,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E5">
         <v>2025</v>
@@ -1684,7 +1684,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>51</v>
       </c>
       <c r="D6" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E6">
         <v>2025</v>
@@ -1746,7 +1746,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>49</v>
       </c>
       <c r="D7" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E7">
         <v>2025</v>
@@ -1808,7 +1808,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>71</v>
       </c>
       <c r="D8" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E8">
         <v>2025</v>
@@ -1870,7 +1870,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>54</v>
       </c>
       <c r="D9" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E9">
         <v>2025</v>
@@ -1932,7 +1932,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>132</v>
       </c>
       <c r="D10" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E10" s="2">
         <v>2025</v>
@@ -1994,7 +1994,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>144</v>
       </c>
       <c r="D11" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E11" s="2">
         <v>2025</v>
@@ -2056,7 +2056,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>213</v>
       </c>
       <c r="D12" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E12" s="2">
         <v>2025</v>
@@ -2118,7 +2118,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>212</v>
       </c>
       <c r="D13" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E13" s="2">
         <v>2025</v>
@@ -2180,7 +2180,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>214</v>
       </c>
       <c r="D14" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E14" s="2">
         <v>2025</v>
@@ -2242,7 +2242,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2253,7 +2253,7 @@
         <v>190</v>
       </c>
       <c r="D15" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E15" s="2">
         <v>2025</v>
@@ -2304,7 +2304,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>215</v>
       </c>
       <c r="D16" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E16" s="2">
         <v>2025</v>
